--- a/linear_regression_input.xlsx
+++ b/linear_regression_input.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Feature1</t>
-  </si>
-  <si>
-    <t>Feature2</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,1425 +420,1437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Feature1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Feature2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.5488135039273248</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7151893663724195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.369831029078415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0.6027633760716439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5448831829968969</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.760244792770555</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.5488135039273248</v>
-      </c>
-      <c r="C2">
-        <v>0.7151893663724195</v>
-      </c>
-      <c r="D2">
-        <v>4.369831029078415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.6027633760716439</v>
-      </c>
-      <c r="C3">
-        <v>0.5448831829968969</v>
-      </c>
-      <c r="D3">
-        <v>1.760244792770555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.4236547993389047</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.6458941130666561</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1.637523285466675</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.4375872112626925</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.8917730007820798</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3.11267338012719</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.9636627605010293</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.3834415188257777</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>2.579617626787087</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.7917250380826646</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.5288949197529045</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>5.099666889241028</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.5680445610939323</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.925596638292661</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4.862299843991608</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.07103605819788694</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.08712929970154071</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.4910112568855869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.02021839744032572</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.832619845547938</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1.312860812694298</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.7781567509498505</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.8700121482468192</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>5.010712923041706</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.978618342232764</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.7991585642167236</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>3.354497029726134</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0.4614793622529318</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.7805291762864555</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1.719775156587619</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.1182744258689332</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.6399210213275238</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>3.34434170807274</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.1433532874090464</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.9446689170495839</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>3.437655937891694</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.5218483217500717</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.4146619399905236</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>3.208541287252533</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.264555612104627</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.7742336894342167</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>3.170539945454926</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.4561503322165485</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.5684339488686485</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>3.474433122941734</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.01878980043635514</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.6176354970758771</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>1.239460498800195</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>0.6120957227224214</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.6169339968747569</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>2.040750594284649</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.9437480785146242</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.6818202991034834</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>4.614551572621325</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.359507900573786</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.4370319537993415</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1.226701998371755</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.6976311959272649</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.06022547162926983</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.8863890289921387</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.6667667154456677</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.6706378696181594</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>2.889914536228471</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.2103825610738409</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.1289262976548533</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.8250231741372984</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.3154283509241839</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0.3637107709426226</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>1.367995103422752</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.5701967704178796</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.4386015134623203</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>1.081246787804701</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.9883738380592262</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.1020448107480281</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>1.639263705529646</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.2088767560948347</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.1613095178849963</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>-1.321721086379768</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.6531083254653984</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.2532916025397821</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>2.691322909577331</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.4663107728563063</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.2444255920016027</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.06384066611067318</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>0.1589695836455197</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.1103751411643051</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>-0.4553187486444957</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.6563295894652734</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.1381829513486138</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>1.779373112237363</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.1965823616800535</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.3687251706609641</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.7597772389516861</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.8209932298479351</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.09710127579306127</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>3.47630488248179</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.8379449074988039</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.09609840789396307</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.6713281289560484</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.9764594650133958</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.4686512016477016</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>3.625923404319079</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>0.9767610881903371</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.604845519745046</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>3.728775917388317</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.7392635793983017</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.03918779225432067</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.427997037818368</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.2828069625764096</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.1201965612131689</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>1.44948026932408</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>0.2961401975221449</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.1187277189542441</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>0.7769172206847739</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>0.317983179393976</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.41426299451467</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>2.650545893545629</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>0.06414749634878436</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.6924721193700198</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>3.02921550477136</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>0.5666014542065752</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.2653894909394454</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>4.092607330512177</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.5232480534666997</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.09394051075844168</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>2.664845588645116</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>0.5759464955561793</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.9292961975762141</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>3.570599745898557</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>0.3185689524513237</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.6674103799636817</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>2.399989867217766</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>0.1317978624043922</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.7163272041185655</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>3.512236933051594</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>0.2894060929472011</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.1831913620071168</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>1.783650002638351</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>0.5865129348100832</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.02010754618749355</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>1.873480034280239</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>0.8289400292173631</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.004695476192547066</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>0.05501044270153299</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>0.6778165367962301</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.2700079731921649</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>2.141330868770019</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>0.7351940221225949</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.9621885451174382</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>3.618922770391816</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>0.248753143519958</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.5761573344178369</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>2.505902889336665</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>0.592041931271839</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.5722519057908734</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>2.80268919027334</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.2230816326406183</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.952749011516985</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>4.214589207924783</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>0.4471253786176274</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.8464086724711278</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>3.75069498983994</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>0.6994792753175043</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.2974369508551337</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>3.077597365309386</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>0.8137978197024772</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.3965057408469846</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>2.350693765209965</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>0.8811031971111616</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.5812728726358587</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>2.561578756211649</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>0.8817353618548528</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.6925315900777659</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>3.431015800740455</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>0.7252542798196405</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.5013243819267023</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>2.937461291557947</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>0.9560836347232239</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.6439901992296374</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>4.223289602690442</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>0.4238550485581797</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.6063932141279244</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>4.926198690190985</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>0.01919319830933353</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.3015748166745493</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>0.9008536949816723</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>0.660173537492685</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.2900776072104441</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>1.234634896123925</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>0.6180154289988415</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.4287687009457661</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>2.176355185135595</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>0.1354740642224502</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.2982823259560308</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>0.7021991316668985</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>0.5699649107012649</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.5908727612481732</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>3.394029578920512</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>0.5743252488495788</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.6532008198571336</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>1.567455942825933</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>0.6521032700016889</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.431418435433974</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>2.661723840505631</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>0.896546595851063</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.3675618700478965</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>3.052285339811191</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>0.4358649252656268</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.8919233550156721</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>3.779680951778546</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>0.8061939890460857</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.7038885835403663</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>3.126737659747908</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>0.1002268873123011</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.9194826137446735</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>2.720979886122616</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>0.7142412995491114</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.9988470065678665</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>3.00096270981929</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>0.1494483046579937</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.8681260573682142</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>2.409954898058436</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>0.1624929346763748</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.6155595642838442</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>1.628803086187564</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>0.1238199828494415</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.8480082293222344</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>3.207714699927012</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>0.8073189587250107</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.5691007386145933</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>2.165757701471889</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>0.4071832972259997</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.06916699545513805</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>1.803065682527407</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>0.6974287731445636</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.4535426826780689</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>4.249970138814703</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>0.7220555994703479</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.8663823259286292</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>1.973273151713051</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>0.9755215050028858</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.855803342392611</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>4.944711767961706</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>0.01171408418500197</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.3599780644783639</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>1.780270396835341</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>0.729990562424058</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.1716296772614405</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>1.337433131080209</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>0.5210366062041293</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.05433798833925363</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>0.8078153630972218</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>0.1999965248964001</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.01852179446061397</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>0.3226778555876865</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>0.7936977033574206</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.2239246880603801</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>1.961378591494253</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>0.3453516806969027</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.9280812934655909</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>3.165934272743456</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>0.7044144019235328</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.03183892953130785</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>-0.1716582138889877</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>0.1646941564979127</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.6214784014997635</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>3.346155082278236</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>0.5772285886041676</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.2378928213745086</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>2.947754233368682</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>0.9342139979247938</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.613965955965896</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>2.896961604543073</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>0.5356328030249583</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.589909976354571</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>1.374571207311115</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>0.7301220295167696</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.3119449954796019</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>2.917143921925104</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>0.3982210622160919</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.2098437489751221</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>0.8501854015444841</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>0.1861930058803362</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.9443723899839336</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>3.347456345033252</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>0.7395507950492876</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.4904588086175671</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>2.631149598806181</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>0.2274146279733232</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.2543564817703929</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>1.909437452328012</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>0.05802916032387562</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.4344166255581208</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>2.114057340978119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>